--- a/doc/managment/behrends/Risikoregister.xlsx
+++ b/doc/managment/behrends/Risikoregister.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBC4145-731F-4BF4-BAF0-9B679F86DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F39BF5-4E72-4E10-8EE5-6ECAD3AF7F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoregister" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
   <si>
     <t>Nr.</t>
   </si>
@@ -282,9 +282,24 @@
     <t>Unvorhergesehene Ausfälle</t>
   </si>
   <si>
+    <t>Pen-test nicht bestanden</t>
+  </si>
+  <si>
     <t>Unklar</t>
   </si>
   <si>
+    <t>Ausbesserung Schwachstelle</t>
+  </si>
+  <si>
+    <t>Sekräterinnen unzufrieden mit Beta</t>
+  </si>
+  <si>
+    <t>Nachbesserung Produkt, Zeitverschiebung</t>
+  </si>
+  <si>
+    <t>Absprechen von Anfang an</t>
+  </si>
+  <si>
     <t>Nachbessern</t>
   </si>
   <si>
@@ -363,12 +378,42 @@
     <t>schlechte Planung,Komplexer als erwartet</t>
   </si>
   <si>
+    <t>3.4</t>
+  </si>
+  <si>
     <t>Meetings mit Kunden</t>
   </si>
   <si>
+    <t>Sicherheitslücke</t>
+  </si>
+  <si>
+    <t>Datensicherheit nicht gewährleistet</t>
+  </si>
+  <si>
+    <t>Pen-Test</t>
+  </si>
+  <si>
+    <t>Lücke Schließen</t>
+  </si>
+  <si>
+    <t>Kunde ist unzufireden</t>
+  </si>
+  <si>
+    <t>Verwehrt Zahlung</t>
+  </si>
+  <si>
+    <t>Klage</t>
+  </si>
+  <si>
+    <t>Projekt Manager</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
+    <t>Ausfall Betroffener Personen</t>
+  </si>
+  <si>
     <t>Krankheit</t>
   </si>
   <si>
@@ -376,24 +421,6 @@
   </si>
   <si>
     <t>evl.Verlängerung gesamt Projektdauer</t>
-  </si>
-  <si>
-    <t>Bug kann nicht gefixed werden</t>
-  </si>
-  <si>
-    <t>evtl. Programmfehler</t>
-  </si>
-  <si>
-    <t>Workaround</t>
-  </si>
-  <si>
-    <t>Gute Coding-Practices einhalten</t>
-  </si>
-  <si>
-    <t>Verhindert</t>
-  </si>
-  <si>
-    <t>Ausfall benötigter Kontaktpersonen</t>
   </si>
 </sst>
 </file>
@@ -756,7 +783,7 @@
     <cellStyle name="40 % - Akzent1" xfId="2" builtinId="31"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="58">
     <dxf>
       <font>
         <color theme="6" tint="-0.499984740745262"/>
@@ -1103,6 +1130,36 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF9C6500"/>
@@ -1120,6 +1177,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1587,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>43</v>
@@ -1766,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>63</v>
@@ -1812,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>63</v>
@@ -1882,10 +1969,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>83</v>
@@ -1904,7 +1991,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>78</v>
@@ -1931,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>60</v>
@@ -1953,7 +2040,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>64</v>
@@ -1971,16 +2058,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>70</v>
@@ -1999,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>64</v>
@@ -2141,7 +2228,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
@@ -2175,13 +2262,13 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>60</v>
@@ -2203,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>74</v>
@@ -2221,16 +2308,16 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>70</v>
@@ -2246,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>79</v>
@@ -2339,32 +2426,32 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="9">
         <f>(VLOOKUP(F19,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G19,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>13</v>
@@ -2377,149 +2464,149 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>4</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="9">
+        <f>(VLOOKUP(F20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G20,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>60</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="9">
+        <f>(VLOOKUP(L20,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M20,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="9">
         <f>(VLOOKUP(F21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>74</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="9">
         <f>(VLOOKUP(L21,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M21,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="9">
-        <f>(VLOOKUP(F22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G22,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="9">
-        <f>(VLOOKUP(L22,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M22,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>9</v>
-      </c>
+      <c r="A22" s="19">
+        <v>4</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="9">
         <f>(VLOOKUP(F23,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G23,Bewertungsmatrix!$A$8:$C$10,2))</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>74</v>
@@ -2535,170 +2622,330 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="9">
+        <f>(VLOOKUP(F24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G24,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="9">
+        <f>(VLOOKUP(L24,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M24,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="9">
+        <f>(VLOOKUP(F25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G25,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>36</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="9">
+        <f>(VLOOKUP(L25,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M25,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="9">
+        <f>(VLOOKUP(F26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(G26,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>18</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="9">
+        <f>(VLOOKUP(L26,Bewertungsmatrix!$A$3:$C$5,2))*(VLOOKUP(M26,Bewertungsmatrix!$A$8:$C$10,2))</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F5:H10 F12:H19 L12:N19">
-    <cfRule type="containsText" dxfId="51" priority="55" operator="containsText" text="Kritisch">
+  <conditionalFormatting sqref="F5:H10 F12:H21 L12:N21">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="56" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B10 B17:C17 B12:B16 B18:B19">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Eingetreten">
+  <conditionalFormatting sqref="B5:B10 B17:C17 B12:B16 B18:B21">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Eingetreten">
       <formula>NOT(ISERROR(SEARCH("Eingetreten",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Verhindert">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Verhindert">
       <formula>NOT(ISERROR(SEARCH("Verhindert",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G10 G18:G19 M18:M19">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Hoch">
+  <conditionalFormatting sqref="G5:G10">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",G12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",G18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N10">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Kritisch">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Kritisch">
       <formula>NOT(ISERROR(SEARCH("Kritisch",L5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M10">
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M16">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M16">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="Hoch">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Hoch">
       <formula>NOT(ISERROR(SEARCH("Hoch",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Mittel">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Mittel">
       <formula>NOT(ISERROR(SEARCH("Mittel",M12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Gering">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Gering">
       <formula>NOT(ISERROR(SEARCH("Gering",M12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:H23">
+  <conditionalFormatting sqref="M18:M21">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Hoch">
+      <formula>NOT(ISERROR(SEARCH("Hoch",M18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Mittel">
+      <formula>NOT(ISERROR(SEARCH("Mittel",M18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Gering">
+      <formula>NOT(ISERROR(SEARCH("Gering",M18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:H26">
     <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",F20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kritisch",F22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",F20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
+  <conditionalFormatting sqref="B22:C22">
     <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G23">
+  <conditionalFormatting sqref="G23:G26">
     <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",G21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",G23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",G21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",G23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",G21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:N23">
+  <conditionalFormatting sqref="L22:N26">
     <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Kritisch">
-      <formula>NOT(ISERROR(SEARCH("Kritisch",L20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Kritisch",L22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",L20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M23">
+  <conditionalFormatting sqref="M23:M26">
     <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Hoch">
-      <formula>NOT(ISERROR(SEARCH("Hoch",M21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hoch",M23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Mittel">
-      <formula>NOT(ISERROR(SEARCH("Mittel",M21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mittel",M23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Gering">
-      <formula>NOT(ISERROR(SEARCH("Gering",M21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Gering",M23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Eingetreten">
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Verhindert">
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
     <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Eingetreten">
-      <formula>NOT(ISERROR(SEARCH("Eingetreten",B23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Eingetreten",B25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Verhindert">
-      <formula>NOT(ISERROR(SEARCH("Verhindert",B23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Verhindert",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B10 B21:B23 B12:B16 B18:B19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B10 B18:B21 B23:B26 B12:B16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Monitoring, Verhindert, Eingetreten"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2722,7 +2969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F5:H10 F12:H19 L12:N19</xm:sqref>
+          <xm:sqref>F5:H10 F12:H21 L12:N21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="39" operator="containsText" id="{D0F71A92-99CA-4C26-A0C8-B80D19DA3DE5}">
@@ -2743,7 +2990,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="24" operator="containsText" id="{6B6ECD0D-2830-4939-B108-D6A7ABA1BDE9}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F20)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,F22)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2756,11 +3003,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F20:H23</xm:sqref>
+          <xm:sqref>F22:H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{92AE4E55-D893-4D56-8298-696AD604F894}">
-            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L20)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Bewertungsmatrix!$A$3,L22)))</xm:f>
             <xm:f>Bewertungsmatrix!$A$3</xm:f>
             <x14:dxf>
               <font>
@@ -2773,7 +3020,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L20:N23</xm:sqref>
+          <xm:sqref>L22:N26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2783,13 +3030,13 @@
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$8:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G10 G12:G16 M5:M10 M12:M16 M21:M23 G21:G23 M18:M19 G18:G19</xm:sqref>
+          <xm:sqref>G5:G10 G12:G16 M18:M21 M5:M10 M12:M16 G18:G21 M23:M26 G23:G26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B726877-E88E-4ED7-AA75-38D95FCE8CC1}">
           <x14:formula1>
             <xm:f>Bewertungsmatrix!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F10 F12:F16 L5:L10 L12:L16 L21:L23 F21:F23 L18:L19 F18:F19</xm:sqref>
+          <xm:sqref>F5:F10 F12:F16 L18:L21 L5:L10 L12:L16 F18:F21 L23:L26 F23:F26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
